--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Рабочий стол\Куш\labwork4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Кушарева\software-testing-course\labwork4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="223">
   <si>
     <t>N/A</t>
   </si>
@@ -709,6 +709,9 @@
   <si>
     <t>Кушарева Евгения</t>
   </si>
+  <si>
+    <t>#19</t>
+  </si>
 </sst>
 </file>
 
@@ -717,7 +720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,14 +853,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1326,25 +1321,6 @@
     <xf numFmtId="14" fontId="16" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1363,10 +1339,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,6 +1371,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1721,7 +1716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
@@ -1741,20 +1736,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1763,105 +1758,105 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1893,11 +1888,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1906,6 +1896,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1918,11 +1913,11 @@
   </sheetPr>
   <dimension ref="A1:XFC114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,18 +1933,18 @@
         <v>29</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="86"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="28"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -18509,8 +18504,8 @@
       <c r="B18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="66" t="s">
-        <v>1</v>
+      <c r="C18" s="88" t="s">
+        <v>222</v>
       </c>
       <c r="D18" s="43"/>
     </row>
@@ -18827,8 +18822,8 @@
       <c r="B46" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="66" t="s">
-        <v>1</v>
+      <c r="C46" s="88" t="s">
+        <v>222</v>
       </c>
       <c r="D46" s="43"/>
     </row>
@@ -19391,8 +19386,8 @@
       <c r="B95" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="66" t="s">
-        <v>1</v>
+      <c r="C95" s="88" t="s">
+        <v>222</v>
       </c>
       <c r="D95" s="59"/>
     </row>
@@ -19618,7 +19613,12 @@
   <mergeCells count="1">
     <mergeCell ref="C1:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C95" r:id="rId1"/>
+    <hyperlink ref="C46" r:id="rId2"/>
+    <hyperlink ref="C18" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="224">
   <si>
     <t>N/A</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>#19</t>
+  </si>
+  <si>
+    <t>v 1.01</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,6 +1324,9 @@
     <xf numFmtId="14" fontId="16" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,9 +1377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1736,20 +1739,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1758,105 +1761,105 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1914,10 +1917,10 @@
   <dimension ref="A1:XFC114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,18 +1936,18 @@
         <v>29</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="85"/>
+      <c r="D1" s="86"/>
     </row>
     <row r="2" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="28"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1954,7 +1957,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>28</v>
@@ -18504,7 +18507,7 @@
       <c r="B18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="66" t="s">
         <v>222</v>
       </c>
       <c r="D18" s="43"/>
@@ -18822,7 +18825,7 @@
       <c r="B46" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="66" t="s">
         <v>222</v>
       </c>
       <c r="D46" s="43"/>
@@ -19386,7 +19389,7 @@
       <c r="B95" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="88" t="s">
+      <c r="C95" s="66" t="s">
         <v>222</v>
       </c>
       <c r="D95" s="59"/>
@@ -19614,9 +19617,9 @@
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C95" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId1"/>
     <hyperlink ref="C46" r:id="rId2"/>
-    <hyperlink ref="C18" r:id="rId3"/>
+    <hyperlink ref="C95" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
